--- a/xlsx/系统论_intext.xlsx
+++ b/xlsx/系统论_intext.xlsx
@@ -29,7 +29,7 @@
     <t>自组织</t>
   </si>
   <si>
-    <t>政策_政策_政治學_系统论</t>
+    <t>政策_政策_政治学_系统论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%97%E6%95%A3%E7%BB%93%E6%9E%84%E7%90%86%E8%AE%BA</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E7%AD%96%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>決策理論</t>
+    <t>决策理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C</t>
@@ -863,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E8%82%B2%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>體育科學</t>
+    <t>体育科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%AD%A6%E7%A7%91%E5%88%86%E7%B1%BB%E5%9B%BD%E5%AE%B6%E6%A0%87%E5%87%86/910</t>
@@ -881,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
